--- a/_Flow/0200_BaseControl/doc/BaseControl.xlsx
+++ b/_Flow/0200_BaseControl/doc/BaseControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574EB5BA-FD80-4C50-861A-705D44D2AE2C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0F0A3A-AE80-4A36-9809-25F324C8C2C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>thumbnail</t>
   </si>
@@ -443,7 +443,19 @@
     <t>errordlg_isdone()</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/08/14 10:36:15
+    <t>S_FADE_INIT</t>
+  </si>
+  <si>
+    <t>フェード初期化</t>
+  </si>
+  <si>
+    <t>fade_init();</t>
+  </si>
+  <si>
+    <t>100007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/08/14 11:43:49
 ; * pssgEditor version : 0.8.1324.84ddfe8b9164e3a8c4be8bc96d8283e0a18b865e
 psggfile=@@@
 BaseControl.psgg
@@ -469,7 +481,7 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":34,"y":57}},{"Key":"S_END","Value":{"x":574,"y":68}},{"Key":"S_0001","Value":{"x":59,"y":608}},{"Key":"S_DEBUG_INIT","Value":{"x":44,"y":301}},{"Key":"S_NET_INIT","Value":{"x":48,"y":445}},{"Key":"S_ERRORDLG_INIT","Value":{"x":34,"y":146}},{"Key":"S_ASSETBUNDLE_INIT","Value":{"x":40,"y":582}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":34,"y":57}},{"Key":"S_END","Value":{"x":574,"y":68}},{"Key":"S_DEBUG_INIT","Value":{"x":43,"y":314}},{"Key":"S_NET_INIT","Value":{"x":48,"y":445}},{"Key":"S_ERRORDLG_INIT","Value":{"x":34,"y":146}},{"Key":"S_ASSETBUNDLE_INIT","Value":{"x":56,"y":565}},{"Key":"S_0001","Value":{"x":62,"y":689}},{"Key":"S_FADE_INIT","Value":{"x":62,"y":689}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -1041,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
@@ -1057,7 +1069,7 @@
     <col min="4" max="16384" width="15.625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="144.75" customHeight="1">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="144.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1077,8 +1089,11 @@
       <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="4" customFormat="1">
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -1104,8 +1119,11 @@
       <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" ht="37.5">
+      <c r="J2" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="7" customFormat="1" ht="37.5">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
@@ -1127,8 +1145,11 @@
       <c r="I3" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="7" customFormat="1">
+      <c r="J3" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="7" customFormat="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>21</v>
@@ -1139,7 +1160,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:9" s="9" customFormat="1" ht="18.75" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
         <v>23</v>
@@ -1159,17 +1180,20 @@
         <v>11</v>
       </c>
       <c r="I5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1">
+    <row r="6" spans="1:10" s="11" customFormat="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="7" spans="1:10" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>24</v>
@@ -1180,8 +1204,11 @@
       <c r="H7" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="11" customFormat="1">
+      <c r="J7" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="11" customFormat="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>25</v>
@@ -1190,7 +1217,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:9" s="11" customFormat="1">
+    <row r="9" spans="1:10" s="11" customFormat="1">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>26</v>
@@ -1199,14 +1226,14 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:9" s="11" customFormat="1">
+    <row r="10" spans="1:10" s="11" customFormat="1">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="11" spans="1:10" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>27</v>
@@ -1215,7 +1242,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:9" s="11" customFormat="1">
+    <row r="12" spans="1:10" s="11" customFormat="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>28</v>
@@ -1224,14 +1251,14 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:9" s="11" customFormat="1">
+    <row r="13" spans="1:10" s="11" customFormat="1">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:9" s="11" customFormat="1">
+    <row r="14" spans="1:10" s="11" customFormat="1">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>29</v>
@@ -1243,7 +1270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="11" customFormat="1">
+    <row r="15" spans="1:10" s="11" customFormat="1">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>30</v>
@@ -1252,14 +1279,14 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:9" s="11" customFormat="1">
+    <row r="16" spans="1:10" s="11" customFormat="1">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:9" s="11" customFormat="1">
+    <row r="17" spans="1:10" s="11" customFormat="1">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>1</v>
@@ -1268,7 +1295,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:9" s="11" customFormat="1">
+    <row r="18" spans="1:10" s="11" customFormat="1">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>31</v>
@@ -1277,14 +1304,14 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:9" s="11" customFormat="1">
+    <row r="19" spans="1:10" s="11" customFormat="1">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:9" s="13" customFormat="1">
+    <row r="20" spans="1:10" s="13" customFormat="1">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
         <v>32</v>
@@ -1293,7 +1320,7 @@
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1">
+    <row r="21" spans="1:10" s="15" customFormat="1" ht="18.75" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="14" t="s">
         <v>33</v>
@@ -1302,8 +1329,8 @@
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:9" s="16" customFormat="1"/>
-    <row r="23" spans="1:9" s="16" customFormat="1" ht="56.25">
+    <row r="22" spans="1:10" s="16" customFormat="1"/>
+    <row r="23" spans="1:10" s="16" customFormat="1" ht="56.25">
       <c r="B23" s="16" t="s">
         <v>34</v>
       </c>
@@ -1319,13 +1346,16 @@
       <c r="I23" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" s="16" customFormat="1">
+      <c r="J23" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="16" customFormat="1">
       <c r="B24" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="16" customFormat="1">
+    <row r="25" spans="1:10" s="16" customFormat="1">
       <c r="B25" s="16" t="s">
         <v>37</v>
       </c>
@@ -1346,6 +1376,9 @@
       </c>
       <c r="I25" s="16" t="s">
         <v>43</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1365,7 +1398,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/_Flow/0200_BaseControl/doc/BaseControl.xlsx
+++ b/_Flow/0200_BaseControl/doc/BaseControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0F0A3A-AE80-4A36-9809-25F324C8C2C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839528F8-7529-4CC1-B719-7CD5EA9A07EA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>thumbnail</t>
   </si>
@@ -455,7 +455,10 @@
     <t>100007</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/08/14 11:43:49
+    <t>LogHandler.Create();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/08/14 15:21:21
 ; * pssgEditor version : 0.8.1324.84ddfe8b9164e3a8c4be8bc96d8283e0a18b865e
 psggfile=@@@
 BaseControl.psgg
@@ -481,7 +484,7 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":34,"y":57}},{"Key":"S_END","Value":{"x":574,"y":68}},{"Key":"S_DEBUG_INIT","Value":{"x":43,"y":314}},{"Key":"S_NET_INIT","Value":{"x":48,"y":445}},{"Key":"S_ERRORDLG_INIT","Value":{"x":34,"y":146}},{"Key":"S_ASSETBUNDLE_INIT","Value":{"x":56,"y":565}},{"Key":"S_0001","Value":{"x":62,"y":689}},{"Key":"S_FADE_INIT","Value":{"x":62,"y":689}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":34,"y":57}},{"Key":"S_END","Value":{"x":574,"y":68}},{"Key":"S_DEBUG_INIT","Value":{"x":34,"y":310}},{"Key":"S_NET_INIT","Value":{"x":31,"y":446}},{"Key":"S_ERRORDLG_INIT","Value":{"x":34,"y":146}},{"Key":"S_ASSETBUNDLE_INIT","Value":{"x":35,"y":575}},{"Key":"S_FADE_INIT","Value":{"x":43,"y":717}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -1201,6 +1204,9 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
+      <c r="F7" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="H7" s="11" t="s">
         <v>44</v>
       </c>
@@ -1398,7 +1404,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
